--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RESPALDO\Desktop\Grafos\Waiting-list-optimization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <sheet name="jueves" sheetId="4" r:id="rId4"/>
     <sheet name="viernes" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1628,8 +1633,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1692,11 +1697,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1738,7 +1751,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1770,9 +1783,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1804,6 +1818,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1979,14 +1994,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2021,7 +2038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2056,7 +2073,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -2091,7 +2108,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11</v>
       </c>
@@ -2126,7 +2143,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -2161,7 +2178,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2196,7 +2213,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13</v>
       </c>
@@ -2231,7 +2248,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2266,7 +2283,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
@@ -2301,7 +2318,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -2336,7 +2353,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -2371,7 +2388,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2406,7 +2423,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2441,7 +2458,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2476,7 +2493,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -2511,7 +2528,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2546,7 +2563,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2581,7 +2598,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2616,7 +2633,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
@@ -2651,7 +2668,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -2686,7 +2703,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -2721,7 +2738,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
@@ -2756,7 +2773,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2791,7 +2808,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11</v>
       </c>
@@ -2826,7 +2843,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
@@ -2861,7 +2878,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -2896,7 +2913,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>14</v>
       </c>
@@ -2931,7 +2948,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
@@ -2966,7 +2983,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -3001,7 +3018,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3036,7 +3053,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
@@ -3071,7 +3088,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3106,7 +3123,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -3141,7 +3158,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -3176,7 +3193,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3211,7 +3228,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -3246,7 +3263,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -3281,7 +3298,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13</v>
       </c>
@@ -3316,7 +3333,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>12</v>
       </c>
@@ -3351,7 +3368,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -3386,7 +3403,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3421,7 +3438,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7</v>
       </c>
@@ -3456,7 +3473,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10</v>
       </c>
@@ -3491,7 +3508,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3526,7 +3543,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -3561,7 +3578,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8</v>
       </c>
@@ -3602,14 +3619,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3644,7 +3661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>13</v>
       </c>
@@ -3679,7 +3696,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -3714,7 +3731,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -3749,7 +3766,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -3784,7 +3801,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -3819,7 +3836,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3854,7 +3871,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -3889,7 +3906,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3924,7 +3941,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
@@ -3959,7 +3976,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3994,7 +4011,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -4029,7 +4046,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -4064,7 +4081,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4099,7 +4116,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -4134,7 +4151,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -4169,7 +4186,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -4204,7 +4221,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
@@ -4239,7 +4256,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -4274,7 +4291,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
@@ -4309,7 +4326,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
@@ -4344,7 +4361,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -4379,7 +4396,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7</v>
       </c>
@@ -4414,7 +4431,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -4449,7 +4466,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -4484,7 +4501,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -4519,7 +4536,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4554,7 +4571,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -4589,7 +4606,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -4624,7 +4641,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -4659,7 +4676,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10</v>
       </c>
@@ -4694,7 +4711,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -4729,7 +4746,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10</v>
       </c>
@@ -4764,7 +4781,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -4799,7 +4816,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>13</v>
       </c>
@@ -4834,7 +4851,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -4869,7 +4886,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>14</v>
       </c>
@@ -4910,14 +4927,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4952,7 +4969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -4987,7 +5004,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5022,7 +5039,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -5057,7 +5074,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -5092,7 +5109,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -5127,7 +5144,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -5162,7 +5179,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5197,7 +5214,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5232,7 +5249,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5267,7 +5284,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -5302,7 +5319,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5337,7 +5354,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
@@ -5372,7 +5389,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -5407,7 +5424,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -5442,7 +5459,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -5477,7 +5494,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -5512,7 +5529,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5547,7 +5564,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -5582,7 +5599,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -5617,7 +5634,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
@@ -5652,7 +5669,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -5687,7 +5704,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -5722,7 +5739,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -5757,7 +5774,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -5792,7 +5809,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11</v>
       </c>
@@ -5827,7 +5844,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -5862,7 +5879,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
@@ -5897,7 +5914,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -5932,7 +5949,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -5967,7 +5984,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11</v>
       </c>
@@ -6002,7 +6019,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -6037,7 +6054,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -6072,7 +6089,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -6107,7 +6124,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10</v>
       </c>
@@ -6142,7 +6159,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
@@ -6177,7 +6194,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -6212,7 +6229,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -6253,14 +6270,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6295,7 +6312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -6330,7 +6347,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -6365,7 +6382,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6400,7 +6417,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -6435,7 +6452,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
@@ -6470,7 +6487,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -6505,7 +6522,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6540,7 +6557,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6575,7 +6592,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -6610,7 +6627,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -6645,7 +6662,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6680,7 +6697,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -6715,7 +6732,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -6750,7 +6767,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -6785,7 +6802,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -6820,7 +6837,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -6855,7 +6872,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
@@ -6890,7 +6907,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -6925,7 +6942,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -6960,7 +6977,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
@@ -6995,7 +7012,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -7030,7 +7047,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -7065,7 +7082,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9</v>
       </c>
@@ -7100,7 +7117,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9</v>
       </c>
@@ -7135,7 +7152,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -7170,7 +7187,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -7205,7 +7222,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>14</v>
       </c>
@@ -7240,7 +7257,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -7275,7 +7292,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -7310,7 +7327,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7</v>
       </c>
@@ -7345,7 +7362,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>12</v>
       </c>
@@ -7380,7 +7397,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -7415,7 +7432,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -7450,7 +7467,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -7485,7 +7502,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10</v>
       </c>
@@ -7520,7 +7537,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>
@@ -7555,7 +7572,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -7590,7 +7607,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -7631,14 +7648,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7673,7 +7690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -7708,7 +7725,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>14</v>
       </c>
@@ -7743,7 +7760,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -7778,7 +7795,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13</v>
       </c>
@@ -7813,7 +7830,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -7848,7 +7865,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13</v>
       </c>
@@ -7883,7 +7900,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -7918,7 +7935,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7953,7 +7970,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -7988,7 +8005,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -8023,7 +8040,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8058,7 +8075,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -8093,7 +8110,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -8128,7 +8145,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -8163,7 +8180,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -8198,7 +8215,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -8233,7 +8250,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -8268,7 +8285,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -8303,7 +8320,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -8338,7 +8355,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -8373,7 +8390,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -8408,7 +8425,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12</v>
       </c>
@@ -8443,7 +8460,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -8478,7 +8495,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
@@ -8513,7 +8530,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>13</v>
       </c>
@@ -8548,7 +8565,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -8583,7 +8600,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13</v>
       </c>
@@ -8618,7 +8635,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -8653,7 +8670,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
@@ -8688,7 +8705,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
@@ -8723,7 +8740,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14</v>
       </c>
@@ -8758,7 +8775,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -8793,7 +8810,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>12</v>
       </c>
@@ -8828,7 +8845,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -8863,7 +8880,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -8898,7 +8915,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11</v>
       </c>
@@ -8933,7 +8950,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13</v>
       </c>

--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="244">
   <si>
     <t>pabellon</t>
   </si>
@@ -53,652 +53,703 @@
     <t>paramedica-2</t>
   </si>
   <si>
-    <t>21872277-0</t>
-  </si>
-  <si>
-    <t>15969717-9</t>
-  </si>
-  <si>
-    <t>22710865-1</t>
-  </si>
-  <si>
-    <t>21295077-9</t>
-  </si>
-  <si>
-    <t>19069655-0</t>
+    <t>23653793-9</t>
+  </si>
+  <si>
+    <t>22344128-6</t>
+  </si>
+  <si>
+    <t>22137896-2</t>
+  </si>
+  <si>
+    <t>17089794-0</t>
+  </si>
+  <si>
+    <t>16696324-3</t>
+  </si>
+  <si>
+    <t>23069057-3</t>
+  </si>
+  <si>
+    <t>4831064-3</t>
+  </si>
+  <si>
+    <t>13406804-4</t>
+  </si>
+  <si>
+    <t>18018632-9</t>
+  </si>
+  <si>
+    <t>12679905-8</t>
+  </si>
+  <si>
+    <t>6845420-4</t>
+  </si>
+  <si>
+    <t>17387822-3</t>
+  </si>
+  <si>
+    <t>6177337-1</t>
+  </si>
+  <si>
+    <t>9539951-7</t>
+  </si>
+  <si>
+    <t>19601047-8</t>
+  </si>
+  <si>
+    <t>9628121-4</t>
+  </si>
+  <si>
+    <t>22751930-1</t>
+  </si>
+  <si>
+    <t>Einat</t>
+  </si>
+  <si>
+    <t>Elisabet</t>
+  </si>
+  <si>
+    <t>Elvina</t>
+  </si>
+  <si>
+    <t>Emilce</t>
+  </si>
+  <si>
+    <t>Ester</t>
+  </si>
+  <si>
+    <t>Ela</t>
+  </si>
+  <si>
+    <t>Elfrida</t>
+  </si>
+  <si>
+    <t>Edelvais</t>
+  </si>
+  <si>
+    <t>Ema</t>
+  </si>
+  <si>
+    <t>Edwina</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Efrath</t>
+  </si>
+  <si>
+    <t>Elata</t>
+  </si>
+  <si>
+    <t>Estrella</t>
+  </si>
+  <si>
+    <t>Eanwinda</t>
+  </si>
+  <si>
+    <t>Etel</t>
+  </si>
+  <si>
+    <t>Edelma</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Eleuteria</t>
+  </si>
+  <si>
+    <t>Eranthe</t>
+  </si>
+  <si>
+    <t>Elba</t>
+  </si>
+  <si>
+    <t>Effie</t>
+  </si>
+  <si>
+    <t>Eileen</t>
+  </si>
+  <si>
+    <t>Elbia</t>
+  </si>
+  <si>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>Ece</t>
+  </si>
+  <si>
+    <t>Euridice</t>
+  </si>
+  <si>
+    <t>Endora</t>
+  </si>
+  <si>
+    <t>Edburga</t>
+  </si>
+  <si>
+    <t>Evora</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Elke</t>
+  </si>
+  <si>
+    <t>Gregorina</t>
+  </si>
+  <si>
+    <t>Gena</t>
+  </si>
+  <si>
+    <t>Giorgia</t>
+  </si>
+  <si>
+    <t>Gracias</t>
+  </si>
+  <si>
+    <t>Euterpe</t>
+  </si>
+  <si>
+    <t>Gerda</t>
+  </si>
+  <si>
+    <t>Gilberta</t>
+  </si>
+  <si>
+    <t>Guendalina</t>
+  </si>
+  <si>
+    <t>Gabrielle</t>
+  </si>
+  <si>
+    <t>Evangeline</t>
+  </si>
+  <si>
+    <t>Ermin</t>
+  </si>
+  <si>
+    <t>Griselda</t>
+  </si>
+  <si>
+    <t>Estibaliz</t>
+  </si>
+  <si>
+    <t>Germana</t>
+  </si>
+  <si>
+    <t>Goldie</t>
+  </si>
+  <si>
+    <t>Dermatologia</t>
+  </si>
+  <si>
+    <t>Cirugia_de_Cabeza_y_Cuello</t>
+  </si>
+  <si>
+    <t>Cirugia_Digestiva</t>
+  </si>
+  <si>
+    <t>Otorrinolaringologia</t>
+  </si>
+  <si>
+    <t>Neurocirugia</t>
+  </si>
+  <si>
+    <t>Traumatologia</t>
+  </si>
+  <si>
+    <t>Ginecologia_y_Obstetricia</t>
+  </si>
+  <si>
+    <t>Plastica_y_Reparadora</t>
+  </si>
+  <si>
+    <t>Urologia_y_Nefrologia</t>
+  </si>
+  <si>
+    <t>Oftalmologia</t>
+  </si>
+  <si>
+    <t>Cirugia_Cardiovascular</t>
+  </si>
+  <si>
+    <t>Geneva</t>
+  </si>
+  <si>
+    <t>Geri</t>
+  </si>
+  <si>
+    <t>Gertrudis</t>
+  </si>
+  <si>
+    <t>Ghislaine</t>
+  </si>
+  <si>
+    <t>Geraldine</t>
+  </si>
+  <si>
+    <t>Georgette</t>
+  </si>
+  <si>
+    <t>Anke</t>
+  </si>
+  <si>
+    <t>Aniana</t>
+  </si>
+  <si>
+    <t>Aniria</t>
+  </si>
+  <si>
+    <t>Annabel</t>
+  </si>
+  <si>
+    <t>Aniko</t>
+  </si>
+  <si>
+    <t>Anisia</t>
+  </si>
+  <si>
+    <t>Arabela</t>
+  </si>
+  <si>
+    <t>Araminta</t>
+  </si>
+  <si>
+    <t>Araci</t>
+  </si>
+  <si>
+    <t>Arcadia</t>
+  </si>
+  <si>
+    <t>Aranzazu</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Asteria</t>
+  </si>
+  <si>
+    <t>Ascla</t>
+  </si>
+  <si>
+    <t>Asuncion</t>
+  </si>
+  <si>
+    <t>Aruna</t>
+  </si>
+  <si>
+    <t>Aspasia</t>
+  </si>
+  <si>
+    <t>22043199-1</t>
+  </si>
+  <si>
+    <t>20529371-2</t>
+  </si>
+  <si>
+    <t>7153001-8</t>
+  </si>
+  <si>
+    <t>4452759-8</t>
+  </si>
+  <si>
+    <t>5413104-3</t>
+  </si>
+  <si>
+    <t>23966235-7</t>
+  </si>
+  <si>
+    <t>10133532-0</t>
+  </si>
+  <si>
+    <t>11914065-3</t>
+  </si>
+  <si>
+    <t>7173637-9</t>
+  </si>
+  <si>
+    <t>9171168-7</t>
+  </si>
+  <si>
+    <t>15343969-5</t>
+  </si>
+  <si>
+    <t>20788944-9</t>
+  </si>
+  <si>
+    <t>22917747-0</t>
+  </si>
+  <si>
+    <t>15682272-0</t>
+  </si>
+  <si>
+    <t>12991448-3</t>
+  </si>
+  <si>
+    <t>14354340-8</t>
+  </si>
+  <si>
+    <t>21494529-8</t>
+  </si>
+  <si>
+    <t>Edana</t>
+  </si>
+  <si>
+    <t>Eleonor</t>
+  </si>
+  <si>
+    <t>Edie</t>
+  </si>
+  <si>
+    <t>Edgarda</t>
+  </si>
+  <si>
+    <t>Elodie</t>
+  </si>
+  <si>
+    <t>Eduviges</t>
+  </si>
+  <si>
+    <t>Esperanza</t>
+  </si>
+  <si>
+    <t>Evonne</t>
+  </si>
+  <si>
+    <t>Exuperancia</t>
+  </si>
+  <si>
+    <t>Elissa</t>
+  </si>
+  <si>
+    <t>Ercilia</t>
+  </si>
+  <si>
+    <t>Edythe</t>
+  </si>
+  <si>
+    <t>Esilda</t>
+  </si>
+  <si>
+    <t>Elisabeth</t>
+  </si>
+  <si>
+    <t>Etelvina</t>
+  </si>
+  <si>
+    <t>Ena</t>
+  </si>
+  <si>
+    <t>Elea</t>
+  </si>
+  <si>
+    <t>Elie</t>
+  </si>
+  <si>
+    <t>Eloisa</t>
+  </si>
+  <si>
+    <t>Eulalie</t>
+  </si>
+  <si>
+    <t>Eugenia</t>
+  </si>
+  <si>
+    <t>Eustelia</t>
+  </si>
+  <si>
+    <t>Easter</t>
+  </si>
+  <si>
+    <t>Evana</t>
+  </si>
+  <si>
+    <t>Eliza</t>
+  </si>
+  <si>
+    <t>Eduvina</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Gayane</t>
+  </si>
+  <si>
+    <t>Ghaliya</t>
+  </si>
+  <si>
+    <t>Glenna</t>
+  </si>
+  <si>
+    <t>Estela</t>
+  </si>
+  <si>
+    <t>Gaia</t>
+  </si>
+  <si>
+    <t>Erlinda</t>
+  </si>
+  <si>
+    <t>Glynis</t>
+  </si>
+  <si>
+    <t>Guvendolina</t>
+  </si>
+  <si>
+    <t>Evacsa</t>
+  </si>
+  <si>
+    <t>Gada</t>
+  </si>
+  <si>
+    <t>Galit</t>
+  </si>
+  <si>
+    <t>Odontologia</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>6958262-0</t>
+  </si>
+  <si>
+    <t>18430064-9</t>
+  </si>
+  <si>
+    <t>12915588-2</t>
+  </si>
+  <si>
+    <t>Elysia</t>
+  </si>
+  <si>
+    <t>Elodia</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Ember</t>
+  </si>
+  <si>
+    <t>Gala</t>
+  </si>
+  <si>
+    <t>Evita</t>
+  </si>
+  <si>
+    <t>6560716-4</t>
+  </si>
+  <si>
+    <t>23183992-0</t>
+  </si>
+  <si>
+    <t>20696368-8</t>
+  </si>
+  <si>
+    <t>22673206-4</t>
+  </si>
+  <si>
+    <t>20465509-0</t>
+  </si>
+  <si>
+    <t>14423781-9</t>
+  </si>
+  <si>
+    <t>5273845-6</t>
+  </si>
+  <si>
+    <t>19779265-9</t>
+  </si>
+  <si>
+    <t>21722870-5</t>
+  </si>
+  <si>
+    <t>10968076-2</t>
+  </si>
+  <si>
+    <t>5160921-3</t>
+  </si>
+  <si>
+    <t>6633542-1</t>
+  </si>
+  <si>
+    <t>11326511-1</t>
+  </si>
+  <si>
+    <t>18496774-2</t>
+  </si>
+  <si>
+    <t>12268719-5</t>
+  </si>
+  <si>
+    <t>15860949-7</t>
+  </si>
+  <si>
+    <t>20669290-8</t>
+  </si>
+  <si>
+    <t>Erminia</t>
+  </si>
+  <si>
+    <t>Ealsa</t>
+  </si>
+  <si>
+    <t>Emilie</t>
+  </si>
+  <si>
+    <t>Emerita</t>
+  </si>
+  <si>
+    <t>Eleanor</t>
   </si>
   <si>
     <t>Estralita</t>
   </si>
   <si>
-    <t>Else</t>
-  </si>
-  <si>
-    <t>Eda</t>
-  </si>
-  <si>
-    <t>Ema</t>
-  </si>
-  <si>
-    <t>Ellie</t>
-  </si>
-  <si>
-    <t>Emiri</t>
-  </si>
-  <si>
-    <t>Elmina</t>
-  </si>
-  <si>
-    <t>Elita</t>
-  </si>
-  <si>
-    <t>Eliane</t>
-  </si>
-  <si>
-    <t>Elisheba</t>
-  </si>
-  <si>
-    <t>Gitel</t>
-  </si>
-  <si>
-    <t>Gwen</t>
-  </si>
-  <si>
-    <t>Ganesa</t>
-  </si>
-  <si>
-    <t>Ginger</t>
+    <t>Eunomia</t>
+  </si>
+  <si>
+    <t>Emelia</t>
+  </si>
+  <si>
+    <t>Edna</t>
+  </si>
+  <si>
+    <t>Elsa</t>
+  </si>
+  <si>
+    <t>Eladia</t>
+  </si>
+  <si>
+    <t>Elvira</t>
+  </si>
+  <si>
+    <t>Eve</t>
+  </si>
+  <si>
+    <t>Euprepia</t>
+  </si>
+  <si>
+    <t>Esmeralda</t>
+  </si>
+  <si>
+    <t>Eustoquia</t>
+  </si>
+  <si>
+    <t>Ernestina</t>
+  </si>
+  <si>
+    <t>Elma</t>
+  </si>
+  <si>
+    <t>Eufrosina</t>
+  </si>
+  <si>
+    <t>Emelina</t>
   </si>
   <si>
     <t>Glauco</t>
   </si>
   <si>
-    <t>Traumatologia</t>
-  </si>
-  <si>
-    <t>Neurocirugia</t>
-  </si>
-  <si>
-    <t>Urologia_y_Nefrologia</t>
-  </si>
-  <si>
-    <t>Dermatologia</t>
-  </si>
-  <si>
-    <t>Ginecologia_y_Obstetricia</t>
-  </si>
-  <si>
-    <t>Geri</t>
-  </si>
-  <si>
-    <t>Ghislaine</t>
-  </si>
-  <si>
-    <t>Geraldine</t>
-  </si>
-  <si>
-    <t>Georgette</t>
-  </si>
-  <si>
-    <t>Aniria</t>
-  </si>
-  <si>
-    <t>Anke</t>
-  </si>
-  <si>
-    <t>Anisia</t>
-  </si>
-  <si>
-    <t>Annabel</t>
-  </si>
-  <si>
-    <t>Aranzazu</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Arcadia</t>
-  </si>
-  <si>
-    <t>Arabela</t>
-  </si>
-  <si>
-    <t>Ascla</t>
-  </si>
-  <si>
-    <t>Asteria</t>
-  </si>
-  <si>
-    <t>Aruna</t>
-  </si>
-  <si>
-    <t>Ashley</t>
-  </si>
-  <si>
-    <t>20042378-3</t>
-  </si>
-  <si>
-    <t>7628903-0</t>
-  </si>
-  <si>
-    <t>4466589-9</t>
-  </si>
-  <si>
-    <t>20209656-9</t>
-  </si>
-  <si>
-    <t>4508934-5</t>
-  </si>
-  <si>
-    <t>16010680-9</t>
-  </si>
-  <si>
-    <t>22324899-0</t>
-  </si>
-  <si>
-    <t>11015366-1</t>
-  </si>
-  <si>
-    <t>4371371-1</t>
-  </si>
-  <si>
-    <t>23754902-5</t>
-  </si>
-  <si>
-    <t>17019697-9</t>
-  </si>
-  <si>
-    <t>18243086-3</t>
-  </si>
-  <si>
-    <t>23972548-3</t>
-  </si>
-  <si>
-    <t>19481064-6</t>
-  </si>
-  <si>
-    <t>Eliska</t>
-  </si>
-  <si>
-    <t>Erminia</t>
-  </si>
-  <si>
-    <t>Eleonor</t>
+    <t>Grazia</t>
+  </si>
+  <si>
+    <t>Guivorada</t>
+  </si>
+  <si>
+    <t>Gisela</t>
+  </si>
+  <si>
+    <t>Glafira</t>
+  </si>
+  <si>
+    <t>Gea</t>
+  </si>
+  <si>
+    <t>Escolastica</t>
+  </si>
+  <si>
+    <t>Genet</t>
+  </si>
+  <si>
+    <t>Gema</t>
+  </si>
+  <si>
+    <t>Eunice</t>
+  </si>
+  <si>
+    <t>Gwyn</t>
+  </si>
+  <si>
+    <t>19478137-2</t>
+  </si>
+  <si>
+    <t>19972146-9</t>
+  </si>
+  <si>
+    <t>9903266-1</t>
+  </si>
+  <si>
+    <t>13028260-0</t>
+  </si>
+  <si>
+    <t>9064270-3</t>
+  </si>
+  <si>
+    <t>21224009-2</t>
+  </si>
+  <si>
+    <t>12868900-6</t>
+  </si>
+  <si>
+    <t>Elide</t>
   </si>
   <si>
     <t>Edith</t>
   </si>
   <si>
-    <t>Eneida</t>
-  </si>
-  <si>
-    <t>Ebony</t>
-  </si>
-  <si>
-    <t>Enara</t>
-  </si>
-  <si>
     <t>Erma</t>
   </si>
   <si>
-    <t>Emmanuelle</t>
-  </si>
-  <si>
-    <t>Elisea</t>
-  </si>
-  <si>
-    <t>Emerita</t>
-  </si>
-  <si>
-    <t>Elda</t>
-  </si>
-  <si>
-    <t>Edana</t>
-  </si>
-  <si>
-    <t>Efrath</t>
-  </si>
-  <si>
-    <t>Eduvigis</t>
-  </si>
-  <si>
-    <t>Edena</t>
-  </si>
-  <si>
-    <t>Ermenilda</t>
-  </si>
-  <si>
-    <t>Electra</t>
-  </si>
-  <si>
-    <t>Elise</t>
-  </si>
-  <si>
-    <t>Enriqueta</t>
-  </si>
-  <si>
-    <t>Elisa</t>
-  </si>
-  <si>
-    <t>Easter</t>
-  </si>
-  <si>
-    <t>Erica</t>
-  </si>
-  <si>
-    <t>Evangelina</t>
-  </si>
-  <si>
-    <t>Etana</t>
+    <t>Elisenda</t>
+  </si>
+  <si>
+    <t>Eufrasia</t>
+  </si>
+  <si>
+    <t>Edelira</t>
+  </si>
+  <si>
+    <t>Emanuela</t>
+  </si>
+  <si>
+    <t>Eira</t>
+  </si>
+  <si>
+    <t>Eloise</t>
+  </si>
+  <si>
+    <t>Elis</t>
+  </si>
+  <si>
+    <t>Erlina</t>
+  </si>
+  <si>
+    <t>Elaine</t>
   </si>
   <si>
     <t>Gianella</t>
   </si>
   <si>
-    <t>Gracias</t>
-  </si>
-  <si>
-    <t>Gayane</t>
-  </si>
-  <si>
-    <t>Githa</t>
-  </si>
-  <si>
-    <t>Genoveva</t>
-  </si>
-  <si>
-    <t>Gwyn</t>
-  </si>
-  <si>
-    <t>Eusebia</t>
-  </si>
-  <si>
-    <t>Gretel</t>
-  </si>
-  <si>
-    <t>Gala</t>
-  </si>
-  <si>
-    <t>Gabriela</t>
-  </si>
-  <si>
-    <t>Gabrielle</t>
-  </si>
-  <si>
-    <t>Galit</t>
-  </si>
-  <si>
-    <t>Gemma</t>
-  </si>
-  <si>
-    <t>Odontologia</t>
-  </si>
-  <si>
-    <t>Cirugia_de_Cabeza_y_Cuello</t>
-  </si>
-  <si>
-    <t>Plastica_y_Reparadora</t>
-  </si>
-  <si>
-    <t>Cirugia_Digestiva</t>
-  </si>
-  <si>
-    <t>Cirugia_Cardiovascular</t>
-  </si>
-  <si>
-    <t>Geneva</t>
-  </si>
-  <si>
-    <t>Aniko</t>
-  </si>
-  <si>
-    <t>Aniana</t>
-  </si>
-  <si>
-    <t>Araci</t>
-  </si>
-  <si>
-    <t>Araminta</t>
-  </si>
-  <si>
-    <t>Asuncion</t>
-  </si>
-  <si>
-    <t>Aspasia</t>
-  </si>
-  <si>
-    <t>14866855-5</t>
-  </si>
-  <si>
-    <t>21612294-4</t>
-  </si>
-  <si>
-    <t>13630185-9</t>
-  </si>
-  <si>
-    <t>17190558-0</t>
-  </si>
-  <si>
-    <t>5321841-9</t>
-  </si>
-  <si>
-    <t>7864429-3</t>
-  </si>
-  <si>
-    <t>22913213-9</t>
-  </si>
-  <si>
-    <t>21777218-2</t>
-  </si>
-  <si>
-    <t>13380249-8</t>
-  </si>
-  <si>
-    <t>7714311-4</t>
-  </si>
-  <si>
-    <t>4929064-8</t>
-  </si>
-  <si>
-    <t>16668149-0</t>
-  </si>
-  <si>
-    <t>Eutrapia</t>
-  </si>
-  <si>
-    <t>Epifania</t>
-  </si>
-  <si>
-    <t>Etel</t>
-  </si>
-  <si>
-    <t>Edeline</t>
-  </si>
-  <si>
-    <t>Enola</t>
-  </si>
-  <si>
-    <t>Elisenda</t>
-  </si>
-  <si>
-    <t>Eshe</t>
-  </si>
-  <si>
-    <t>Edurne</t>
-  </si>
-  <si>
-    <t>Emilie</t>
-  </si>
-  <si>
-    <t>Ediltrudis</t>
-  </si>
-  <si>
-    <t>Elma</t>
-  </si>
-  <si>
-    <t>Edilburga</t>
-  </si>
-  <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Ember</t>
-  </si>
-  <si>
-    <t>Eustelia</t>
-  </si>
-  <si>
-    <t>Eranthe</t>
-  </si>
-  <si>
-    <t>Ely</t>
-  </si>
-  <si>
-    <t>Erika</t>
-  </si>
-  <si>
-    <t>Gorgonia</t>
-  </si>
-  <si>
-    <t>Glafira</t>
-  </si>
-  <si>
-    <t>Guendalina</t>
-  </si>
-  <si>
-    <t>Gavina</t>
-  </si>
-  <si>
-    <t>Genet</t>
-  </si>
-  <si>
-    <t>Giulietta</t>
-  </si>
-  <si>
-    <t>Gerda</t>
-  </si>
-  <si>
-    <t>Galya</t>
-  </si>
-  <si>
-    <t>Otorrinolaringologia</t>
-  </si>
-  <si>
-    <t>Oftalmologia</t>
-  </si>
-  <si>
-    <t>Gertrudis</t>
-  </si>
-  <si>
-    <t>23794376-5</t>
-  </si>
-  <si>
-    <t>13685475-0</t>
-  </si>
-  <si>
-    <t>14103373-2</t>
-  </si>
-  <si>
-    <t>13139616-2</t>
-  </si>
-  <si>
-    <t>23015018-7</t>
-  </si>
-  <si>
-    <t>23574799-7</t>
-  </si>
-  <si>
-    <t>6656188-3</t>
-  </si>
-  <si>
-    <t>17890575-5</t>
-  </si>
-  <si>
-    <t>20830871-8</t>
-  </si>
-  <si>
-    <t>17211767-0</t>
-  </si>
-  <si>
-    <t>16487916-2</t>
-  </si>
-  <si>
-    <t>4412097-3</t>
-  </si>
-  <si>
-    <t>8928019-7</t>
-  </si>
-  <si>
-    <t>16187843-7</t>
-  </si>
-  <si>
-    <t>22879541-9</t>
-  </si>
-  <si>
-    <t>Elvina</t>
-  </si>
-  <si>
-    <t>Erasma</t>
-  </si>
-  <si>
-    <t>Elka</t>
-  </si>
-  <si>
-    <t>Elina</t>
-  </si>
-  <si>
-    <t>Elsa</t>
-  </si>
-  <si>
-    <t>Ennata</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
-    <t>Eveline</t>
-  </si>
-  <si>
-    <t>Elcira</t>
-  </si>
-  <si>
-    <t>Eleanor</t>
-  </si>
-  <si>
-    <t>Edelba</t>
-  </si>
-  <si>
-    <t>Ena</t>
-  </si>
-  <si>
-    <t>Elea</t>
-  </si>
-  <si>
-    <t>Edda</t>
-  </si>
-  <si>
-    <t>Eugenia</t>
-  </si>
-  <si>
-    <t>Elke</t>
-  </si>
-  <si>
-    <t>Elvira</t>
-  </si>
-  <si>
-    <t>Eirene</t>
-  </si>
-  <si>
-    <t>Emerald</t>
-  </si>
-  <si>
-    <t>Ernestina</t>
-  </si>
-  <si>
-    <t>Eutropia</t>
-  </si>
-  <si>
-    <t>Ella</t>
-  </si>
-  <si>
-    <t>Esmirna</t>
-  </si>
-  <si>
-    <t>Gaia</t>
-  </si>
-  <si>
-    <t>Gremy</t>
-  </si>
-  <si>
-    <t>Estela</t>
-  </si>
-  <si>
-    <t>Gretta</t>
-  </si>
-  <si>
-    <t>Gaby</t>
-  </si>
-  <si>
-    <t>Ernestine</t>
-  </si>
-  <si>
-    <t>Gema</t>
-  </si>
-  <si>
-    <t>Glynis</t>
-  </si>
-  <si>
-    <t>10010957-8</t>
-  </si>
-  <si>
-    <t>14910557-7</t>
-  </si>
-  <si>
-    <t>11255092-1</t>
-  </si>
-  <si>
-    <t>20940265-4</t>
-  </si>
-  <si>
-    <t>11874947-3</t>
-  </si>
-  <si>
-    <t>9884551-7</t>
-  </si>
-  <si>
-    <t>12548514-1</t>
-  </si>
-  <si>
-    <t>6727264-4</t>
-  </si>
-  <si>
-    <t>Eroteida</t>
-  </si>
-  <si>
-    <t>Erin</t>
-  </si>
-  <si>
-    <t>Ealsa</t>
-  </si>
-  <si>
-    <t>Edie</t>
-  </si>
-  <si>
-    <t>Emilce</t>
-  </si>
-  <si>
-    <t>Eustoquia</t>
-  </si>
-  <si>
-    <t>Euprepia</t>
-  </si>
-  <si>
-    <t>Edelmira</t>
-  </si>
-  <si>
-    <t>Evette</t>
-  </si>
-  <si>
-    <t>Elena</t>
-  </si>
-  <si>
-    <t>Evelina</t>
-  </si>
-  <si>
-    <t>Garine</t>
-  </si>
-  <si>
-    <t>Gregorina</t>
-  </si>
-  <si>
-    <t>Godeberta</t>
-  </si>
-  <si>
-    <t>Giselle</t>
-  </si>
-  <si>
-    <t>Gliceria</t>
+    <t>Grear</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1099,42 +1150,42 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1143,28 +1194,28 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1172,39 +1223,39 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1213,28 +1264,28 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1242,34 +1293,454 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>39</v>
       </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" t="s">
-        <v>51</v>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1279,7 +1750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1322,37 +1793,37 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1360,34 +1831,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
         <v>92</v>
       </c>
-      <c r="G3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1395,34 +1866,34 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1433,171 +1904,171 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
         <v>69</v>
       </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>94</v>
-      </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" t="s">
         <v>85</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" t="s">
         <v>97</v>
       </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1608,206 +2079,311 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="G12" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" t="s">
         <v>102</v>
       </c>
-      <c r="G13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" t="s">
-        <v>47</v>
-      </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="J14" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="K14" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
         <v>4</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s">
         <v>90</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I17" t="s">
         <v>96</v>
       </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" t="s">
-        <v>113</v>
-      </c>
-      <c r="K15" t="s">
-        <v>49</v>
+      <c r="J17" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1817,7 +2393,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1860,422 +2436,107 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" t="s">
-        <v>112</v>
-      </c>
-      <c r="K6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>156</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J10" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" t="s">
-        <v>153</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2285,7 +2546,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2328,107 +2589,107 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2436,69 +2697,69 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="F6" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2506,139 +2767,139 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" t="s">
         <v>90</v>
       </c>
-      <c r="F9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
         <v>165</v>
-      </c>
-      <c r="D10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2649,171 +2910,171 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="F11" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="E13" t="s">
-        <v>190</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="G13" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="K13" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="D15" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="E15" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="F15" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="K15" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2821,34 +3082,104 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="J16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" t="s">
         <v>44</v>
       </c>
-      <c r="K16" t="s">
-        <v>49</v>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2858,7 +3189,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2901,142 +3232,142 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="F2" t="s">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="F3" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="E5" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3044,139 +3375,104 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="F6" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="F7" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>241</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E9" t="s">
-        <v>220</v>
-      </c>
-      <c r="F9" t="s">
-        <v>226</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
